--- a/data/pca/factorExposure/factorExposure_2009-11-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.008775428092539459</v>
+        <v>0.01646623551022181</v>
       </c>
       <c r="C2">
-        <v>0.0007373719216728819</v>
+        <v>0.0008520026239319581</v>
       </c>
       <c r="D2">
-        <v>-0.008272864449136391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008923081830183831</v>
+      </c>
+      <c r="E2">
+        <v>0.001063570661166347</v>
+      </c>
+      <c r="F2">
+        <v>-0.01180530393839516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1099572154869294</v>
+        <v>0.09378053618730711</v>
       </c>
       <c r="C4">
-        <v>-0.006936432585010147</v>
+        <v>0.01482263654426648</v>
       </c>
       <c r="D4">
-        <v>-0.04914690594476219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08484870412434599</v>
+      </c>
+      <c r="E4">
+        <v>0.02847218892760519</v>
+      </c>
+      <c r="F4">
+        <v>0.03086111141732105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1408343686684827</v>
+        <v>0.1583016813796295</v>
       </c>
       <c r="C6">
-        <v>-0.005060942375491592</v>
+        <v>0.02577192722838567</v>
       </c>
       <c r="D6">
-        <v>0.03986943555874307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02117503155730314</v>
+      </c>
+      <c r="E6">
+        <v>0.01181484160176304</v>
+      </c>
+      <c r="F6">
+        <v>0.0455386271028774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0792150504167938</v>
+        <v>0.06327995213282077</v>
       </c>
       <c r="C7">
-        <v>-0.01772661449427596</v>
+        <v>-0.001617766964143349</v>
       </c>
       <c r="D7">
-        <v>-0.02443559743242892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05236135254825439</v>
+      </c>
+      <c r="E7">
+        <v>0.009148967881217274</v>
+      </c>
+      <c r="F7">
+        <v>0.04705397901336159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06273971808285611</v>
+        <v>0.05703517465525165</v>
       </c>
       <c r="C8">
-        <v>-0.02461370144213509</v>
+        <v>-0.01354031784850968</v>
       </c>
       <c r="D8">
-        <v>0.006219975395893701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03322655876712942</v>
+      </c>
+      <c r="E8">
+        <v>0.01765085119587637</v>
+      </c>
+      <c r="F8">
+        <v>-0.02771955341986704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09245473526476895</v>
+        <v>0.07115206173073074</v>
       </c>
       <c r="C9">
-        <v>-0.005439980330948341</v>
+        <v>0.01049719264440851</v>
       </c>
       <c r="D9">
-        <v>-0.04526624483123488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08658304765575069</v>
+      </c>
+      <c r="E9">
+        <v>0.02256530065788422</v>
+      </c>
+      <c r="F9">
+        <v>0.04647185295786177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04412989163452916</v>
+        <v>0.09381821696358809</v>
       </c>
       <c r="C10">
-        <v>0.0004599504185040266</v>
+        <v>0.02102460979852485</v>
       </c>
       <c r="D10">
-        <v>0.1369724694671411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1680595374104707</v>
+      </c>
+      <c r="E10">
+        <v>-0.03459488253608574</v>
+      </c>
+      <c r="F10">
+        <v>-0.0537780652324326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.1030159047855173</v>
+        <v>0.08780461601842002</v>
       </c>
       <c r="C11">
-        <v>-0.006982989497329089</v>
+        <v>0.01044134939297109</v>
       </c>
       <c r="D11">
-        <v>-0.07573495976337578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.116847181333581</v>
+      </c>
+      <c r="E11">
+        <v>0.04597855978224635</v>
+      </c>
+      <c r="F11">
+        <v>0.02087165881146676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1085660514836378</v>
+        <v>0.09179013079234828</v>
       </c>
       <c r="C12">
-        <v>-0.009883045262596896</v>
+        <v>0.007515005890478932</v>
       </c>
       <c r="D12">
-        <v>-0.07832981979816937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1325230933989277</v>
+      </c>
+      <c r="E12">
+        <v>0.0473121390493107</v>
+      </c>
+      <c r="F12">
+        <v>0.02693417084773001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04413032977571649</v>
+        <v>0.04205807670750825</v>
       </c>
       <c r="C13">
-        <v>-0.003793079659588473</v>
+        <v>0.002860514710125306</v>
       </c>
       <c r="D13">
-        <v>-0.02861008505369041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05286754146485709</v>
+      </c>
+      <c r="E13">
+        <v>-0.00745961169069179</v>
+      </c>
+      <c r="F13">
+        <v>0.002079477825044765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02569108747290123</v>
+        <v>0.02336962392336689</v>
       </c>
       <c r="C14">
-        <v>0.009030278241628753</v>
+        <v>0.01362818732722946</v>
       </c>
       <c r="D14">
-        <v>-0.01602035714751694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03248829074716993</v>
+      </c>
+      <c r="E14">
+        <v>0.01641456336884652</v>
+      </c>
+      <c r="F14">
+        <v>0.01335239712880524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04112421500043969</v>
+        <v>0.03318837937418427</v>
       </c>
       <c r="C15">
-        <v>-0.001452510795455618</v>
+        <v>0.004755545893840466</v>
       </c>
       <c r="D15">
-        <v>-0.01020481232072129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0450474930013943</v>
+      </c>
+      <c r="E15">
+        <v>0.005790533624536699</v>
+      </c>
+      <c r="F15">
+        <v>0.02329148519580459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09005370937451818</v>
+        <v>0.07427427474874107</v>
       </c>
       <c r="C16">
-        <v>-0.01345395814580352</v>
+        <v>0.001204011492716536</v>
       </c>
       <c r="D16">
-        <v>-0.0707986071649457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1267501890465187</v>
+      </c>
+      <c r="E16">
+        <v>0.06175778260473858</v>
+      </c>
+      <c r="F16">
+        <v>0.02447022663367054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03385332852660797</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003389608852161987</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.0174576968501005</v>
+      </c>
+      <c r="E18">
+        <v>-0.007862910940605731</v>
+      </c>
+      <c r="F18">
+        <v>-0.00731779042177346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06301926926948823</v>
+        <v>0.06128880929036882</v>
       </c>
       <c r="C20">
-        <v>-0.007707143190627222</v>
+        <v>-1.735991245085723e-05</v>
       </c>
       <c r="D20">
-        <v>-0.02296712338724414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07791210562074166</v>
+      </c>
+      <c r="E20">
+        <v>0.05525558838904359</v>
+      </c>
+      <c r="F20">
+        <v>0.0234919385079482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04298849241665737</v>
+        <v>0.0410121299734612</v>
       </c>
       <c r="C21">
-        <v>0.0009217239533662271</v>
+        <v>0.006616628221696712</v>
       </c>
       <c r="D21">
-        <v>-0.00661247129914819</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03727559219456995</v>
+      </c>
+      <c r="E21">
+        <v>-0.005296771323719814</v>
+      </c>
+      <c r="F21">
+        <v>-0.02546486062316134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02406255340631346</v>
+        <v>0.04341498412787931</v>
       </c>
       <c r="C22">
-        <v>-0.003366155549997227</v>
+        <v>0.0008962109578313325</v>
       </c>
       <c r="D22">
-        <v>0.02244044006147575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005841884369414963</v>
+      </c>
+      <c r="E22">
+        <v>0.03293073993170464</v>
+      </c>
+      <c r="F22">
+        <v>-0.04057188913397466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02400178016641065</v>
+        <v>0.04339095470482363</v>
       </c>
       <c r="C23">
-        <v>-0.003359740161977141</v>
+        <v>0.0008880213545338487</v>
       </c>
       <c r="D23">
-        <v>0.02244519137958351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005858135348382246</v>
+      </c>
+      <c r="E23">
+        <v>0.03311487982841251</v>
+      </c>
+      <c r="F23">
+        <v>-0.04053642129371297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09867131487525191</v>
+        <v>0.08018227621718092</v>
       </c>
       <c r="C24">
-        <v>-0.01496383884594145</v>
+        <v>0.001705415612737934</v>
       </c>
       <c r="D24">
-        <v>-0.07910317437691443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1216272768546113</v>
+      </c>
+      <c r="E24">
+        <v>0.04908414433180371</v>
+      </c>
+      <c r="F24">
+        <v>0.02550601180226561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.1001219740525667</v>
+        <v>0.08475957346939302</v>
       </c>
       <c r="C25">
-        <v>-0.01223491358310215</v>
+        <v>0.004220230091963741</v>
       </c>
       <c r="D25">
-        <v>-0.08123489707598965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1093853632775829</v>
+      </c>
+      <c r="E25">
+        <v>0.03202881808378464</v>
+      </c>
+      <c r="F25">
+        <v>0.02605918298754248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05330058216025019</v>
+        <v>0.0575279403889678</v>
       </c>
       <c r="C26">
-        <v>0.006685516063100552</v>
+        <v>0.01400124921650138</v>
       </c>
       <c r="D26">
-        <v>-0.0043091216062477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04132361097982985</v>
+      </c>
+      <c r="E26">
+        <v>0.02711997717630646</v>
+      </c>
+      <c r="F26">
+        <v>-0.007255854740509384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09319374869276137</v>
+        <v>0.1407438738160148</v>
       </c>
       <c r="C28">
-        <v>-0.01617771786227635</v>
+        <v>0.02112913022616582</v>
       </c>
       <c r="D28">
-        <v>0.2519141866806799</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.261978951171814</v>
+      </c>
+      <c r="E28">
+        <v>-0.06746102407623986</v>
+      </c>
+      <c r="F28">
+        <v>0.009021682719907616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02672800832795626</v>
+        <v>0.02789974996856562</v>
       </c>
       <c r="C29">
-        <v>0.004655384904258837</v>
+        <v>0.008378623213745063</v>
       </c>
       <c r="D29">
-        <v>-0.007130086433609946</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03099727323801265</v>
+      </c>
+      <c r="E29">
+        <v>0.01053638112498664</v>
+      </c>
+      <c r="F29">
+        <v>-0.01253047396008374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1026934912319479</v>
+        <v>0.0603116608580755</v>
       </c>
       <c r="C30">
-        <v>-0.01711540236075813</v>
+        <v>0.003135396806365142</v>
       </c>
       <c r="D30">
-        <v>-0.04308574570438382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0885523084942587</v>
+      </c>
+      <c r="E30">
+        <v>0.01956479814708512</v>
+      </c>
+      <c r="F30">
+        <v>0.07820337856530395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03633262848070665</v>
+        <v>0.05022756122556275</v>
       </c>
       <c r="C31">
-        <v>0.009207875839778969</v>
+        <v>0.01515226194720116</v>
       </c>
       <c r="D31">
-        <v>-0.01487734205783879</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02477903717519403</v>
+      </c>
+      <c r="E31">
+        <v>0.02735765838801708</v>
+      </c>
+      <c r="F31">
+        <v>-0.001759827049252444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04773007020531185</v>
+        <v>0.05025035300159185</v>
       </c>
       <c r="C32">
-        <v>-0.009413954550065985</v>
+        <v>-0.001799083466786526</v>
       </c>
       <c r="D32">
-        <v>-0.006616342317165252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03664139776457721</v>
+      </c>
+      <c r="E32">
+        <v>0.03199416025698022</v>
+      </c>
+      <c r="F32">
+        <v>0.002635351588391545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.106709317648377</v>
+        <v>0.09009351571878554</v>
       </c>
       <c r="C33">
-        <v>-0.01236503915521037</v>
+        <v>0.007346703551684979</v>
       </c>
       <c r="D33">
-        <v>-0.05052936040889394</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09968069940402015</v>
+      </c>
+      <c r="E33">
+        <v>0.04379731763143471</v>
+      </c>
+      <c r="F33">
+        <v>0.03559642313296556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.09122696199211942</v>
+        <v>0.06775771217130298</v>
       </c>
       <c r="C34">
-        <v>-0.006190642092319424</v>
+        <v>0.01014929699253751</v>
       </c>
       <c r="D34">
-        <v>-0.07275298485819538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1083036392988175</v>
+      </c>
+      <c r="E34">
+        <v>0.034849902878007</v>
+      </c>
+      <c r="F34">
+        <v>0.0323199093683401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02146196483244794</v>
+        <v>0.02459277097209563</v>
       </c>
       <c r="C35">
-        <v>-0.002601290937279835</v>
+        <v>0.002379303955648834</v>
       </c>
       <c r="D35">
-        <v>-0.003424087416932226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01135124077377292</v>
+      </c>
+      <c r="E35">
+        <v>0.01161291982173301</v>
+      </c>
+      <c r="F35">
+        <v>0.0002845812594611792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01642359538325429</v>
+        <v>0.02772791380158351</v>
       </c>
       <c r="C36">
-        <v>0.00647842435692879</v>
+        <v>0.006893411816682189</v>
       </c>
       <c r="D36">
-        <v>-0.02785842731928816</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03939834158523192</v>
+      </c>
+      <c r="E36">
+        <v>0.0161419788224241</v>
+      </c>
+      <c r="F36">
+        <v>0.01473133367167322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0001258489087446915</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001605921759455418</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-5.838884482341573e-05</v>
+      </c>
+      <c r="E37">
+        <v>-0.0003316636679430902</v>
+      </c>
+      <c r="F37">
+        <v>0.0008087653876140095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001807236715628883</v>
+        <v>0.0009996564901235978</v>
       </c>
       <c r="C38">
-        <v>-0.0003363555860350226</v>
+        <v>0.0001528963845136581</v>
       </c>
       <c r="D38">
-        <v>0.00166810459994005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004619573007610916</v>
+      </c>
+      <c r="E38">
+        <v>0.0001521692430358904</v>
+      </c>
+      <c r="F38">
+        <v>-0.001077093008226802</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1362305659357024</v>
+        <v>0.1051420091723537</v>
       </c>
       <c r="C39">
-        <v>-0.00921431270463609</v>
+        <v>0.01565046040966125</v>
       </c>
       <c r="D39">
-        <v>-0.1166286454986237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1534000358950405</v>
+      </c>
+      <c r="E39">
+        <v>0.05822821358385336</v>
+      </c>
+      <c r="F39">
+        <v>0.02884871464203133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02904083960330277</v>
+        <v>0.04250523851059434</v>
       </c>
       <c r="C40">
-        <v>0.00289131842407567</v>
+        <v>0.006827646104624809</v>
       </c>
       <c r="D40">
-        <v>0.01205402779321322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03174358565962954</v>
+      </c>
+      <c r="E40">
+        <v>0.003276489935353301</v>
+      </c>
+      <c r="F40">
+        <v>-0.01646202476054463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0202224109432291</v>
+        <v>0.02777718770832296</v>
       </c>
       <c r="C41">
-        <v>0.003656531280362625</v>
+        <v>0.006792509269199568</v>
       </c>
       <c r="D41">
-        <v>0.005743805964606653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01023263540397381</v>
+      </c>
+      <c r="E41">
+        <v>0.01262205144218639</v>
+      </c>
+      <c r="F41">
+        <v>-0.006967522902030425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02175600484549572</v>
+        <v>0.04035084325238778</v>
       </c>
       <c r="C43">
-        <v>0.004674710957568274</v>
+        <v>0.006819904028669751</v>
       </c>
       <c r="D43">
-        <v>-0.006565495047298864</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01938439724166019</v>
+      </c>
+      <c r="E43">
+        <v>0.02456621366020775</v>
+      </c>
+      <c r="F43">
+        <v>-0.01328912728993052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1094176743371772</v>
+        <v>0.08018135648908291</v>
       </c>
       <c r="C44">
-        <v>0.0003288852032153937</v>
+        <v>0.01959429170892777</v>
       </c>
       <c r="D44">
-        <v>-0.04270456474523221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09752154034432572</v>
+      </c>
+      <c r="E44">
+        <v>0.06318883319119266</v>
+      </c>
+      <c r="F44">
+        <v>0.1548383880910477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.006870877553200934</v>
+        <v>0.02352275697377515</v>
       </c>
       <c r="C46">
-        <v>0.00338480328202379</v>
+        <v>0.003567524507413949</v>
       </c>
       <c r="D46">
-        <v>0.002424881193535008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01288239356370672</v>
+      </c>
+      <c r="E46">
+        <v>0.022095653008824</v>
+      </c>
+      <c r="F46">
+        <v>-0.007266915674261085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04190427679077819</v>
+        <v>0.05204001265539759</v>
       </c>
       <c r="C47">
-        <v>-0.00368599328110389</v>
+        <v>0.003250295682727179</v>
       </c>
       <c r="D47">
-        <v>0.0276883688001631</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0138505621993753</v>
+      </c>
+      <c r="E47">
+        <v>0.02384064793667811</v>
+      </c>
+      <c r="F47">
+        <v>-0.03251840322013412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05171760750705837</v>
+        <v>0.04988127706517291</v>
       </c>
       <c r="C48">
-        <v>-0.006578330556801524</v>
+        <v>0.002107789626500857</v>
       </c>
       <c r="D48">
-        <v>-0.03089381340363333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0504082667215212</v>
+      </c>
+      <c r="E48">
+        <v>-0.006143380589691819</v>
+      </c>
+      <c r="F48">
+        <v>0.009982396803577737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2178083930958989</v>
+        <v>0.2008671776185999</v>
       </c>
       <c r="C49">
-        <v>-0.03211218339290529</v>
+        <v>0.0188236348371324</v>
       </c>
       <c r="D49">
-        <v>0.03490304517082728</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006233060288413145</v>
+      </c>
+      <c r="E49">
+        <v>0.03287255805255537</v>
+      </c>
+      <c r="F49">
+        <v>0.03621552512141962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04082178815226569</v>
+        <v>0.05059314163257892</v>
       </c>
       <c r="C50">
-        <v>0.004058263658789913</v>
+        <v>0.01096908852404577</v>
       </c>
       <c r="D50">
-        <v>-0.008358824950659555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02390682576811419</v>
+      </c>
+      <c r="E50">
+        <v>0.02934296049150932</v>
+      </c>
+      <c r="F50">
+        <v>0.009908665403730423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0008248386264950968</v>
+        <v>0.0004093451580489671</v>
       </c>
       <c r="C51">
-        <v>-0.0001117074381296283</v>
+        <v>0.0001131394444112836</v>
       </c>
       <c r="D51">
-        <v>0.0008816531472825598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001489048603650341</v>
+      </c>
+      <c r="E51">
+        <v>0.0001953098547353287</v>
+      </c>
+      <c r="F51">
+        <v>0.0009543716772576113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.160173499844791</v>
+        <v>0.1463656283496708</v>
       </c>
       <c r="C52">
-        <v>-0.02176355098060502</v>
+        <v>0.01618599100908283</v>
       </c>
       <c r="D52">
-        <v>-0.02931802300927681</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04333700037842839</v>
+      </c>
+      <c r="E52">
+        <v>0.0195918939267935</v>
+      </c>
+      <c r="F52">
+        <v>0.04341947722603503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1735945232542833</v>
+        <v>0.1712577677585895</v>
       </c>
       <c r="C53">
-        <v>-0.02475974413429628</v>
+        <v>0.01918947478426099</v>
       </c>
       <c r="D53">
-        <v>-2.562060594079492e-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005755655602860335</v>
+      </c>
+      <c r="E53">
+        <v>0.03123915311790421</v>
+      </c>
+      <c r="F53">
+        <v>0.07392054057855146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02876505857169901</v>
+        <v>0.02197420129233496</v>
       </c>
       <c r="C54">
-        <v>0.006047423918659216</v>
+        <v>0.01203015783296289</v>
       </c>
       <c r="D54">
-        <v>-0.005915172655302564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03384120237092089</v>
+      </c>
+      <c r="E54">
+        <v>0.01729261016157324</v>
+      </c>
+      <c r="F54">
+        <v>-0.005056471185876112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1051321613024888</v>
+        <v>0.1140079842961241</v>
       </c>
       <c r="C55">
-        <v>-0.009566217461536913</v>
+        <v>0.0167748323326702</v>
       </c>
       <c r="D55">
-        <v>0.006459310670473071</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008245703864847072</v>
+      </c>
+      <c r="E55">
+        <v>0.02705762614768247</v>
+      </c>
+      <c r="F55">
+        <v>0.04824774286479186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1704648898836883</v>
+        <v>0.1763857182946325</v>
       </c>
       <c r="C56">
-        <v>-0.02609503284055736</v>
+        <v>0.01689746588101201</v>
       </c>
       <c r="D56">
-        <v>0.01385327734214068</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0007491613908667122</v>
+      </c>
+      <c r="E56">
+        <v>0.03497201368810826</v>
+      </c>
+      <c r="F56">
+        <v>0.05218550252537454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0384427548198502</v>
+        <v>0.04502482393724291</v>
       </c>
       <c r="C58">
-        <v>-0.001197983241684242</v>
+        <v>-0.0004179917628715509</v>
       </c>
       <c r="D58">
-        <v>-0.03600058474775993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07101925509064345</v>
+      </c>
+      <c r="E58">
+        <v>0.02788390563285654</v>
+      </c>
+      <c r="F58">
+        <v>-0.03751793986214787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1183580831601135</v>
+        <v>0.1683840197504073</v>
       </c>
       <c r="C59">
-        <v>-0.01867941864986175</v>
+        <v>0.0215875164184628</v>
       </c>
       <c r="D59">
-        <v>0.227110918428997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.218701081768251</v>
+      </c>
+      <c r="E59">
+        <v>-0.04589972710662435</v>
+      </c>
+      <c r="F59">
+        <v>-0.03600343830304285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2541963206817677</v>
+        <v>0.2317797899378715</v>
       </c>
       <c r="C60">
-        <v>-0.06137283210497459</v>
+        <v>-0.002865335878584084</v>
       </c>
       <c r="D60">
-        <v>-0.02236338196397831</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04307440836914833</v>
+      </c>
+      <c r="E60">
+        <v>0.01219395582571294</v>
+      </c>
+      <c r="F60">
+        <v>-0.00462185995110442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1159355151599612</v>
+        <v>0.08116949839094822</v>
       </c>
       <c r="C61">
-        <v>-0.0111041416262884</v>
+        <v>0.01142574761502929</v>
       </c>
       <c r="D61">
-        <v>-0.06727913492421661</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1174715231793446</v>
+      </c>
+      <c r="E61">
+        <v>0.0386164336260495</v>
+      </c>
+      <c r="F61">
+        <v>0.01103788839591002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1678936503867719</v>
+        <v>0.1693111632582741</v>
       </c>
       <c r="C62">
-        <v>-0.02195476557472752</v>
+        <v>0.02013997925437809</v>
       </c>
       <c r="D62">
-        <v>0.01206184331575395</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006281390035460538</v>
+      </c>
+      <c r="E62">
+        <v>0.03392098099967181</v>
+      </c>
+      <c r="F62">
+        <v>0.03479419119375846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04776594077487435</v>
+        <v>0.04565744305251488</v>
       </c>
       <c r="C63">
-        <v>-0.0054064042282502</v>
+        <v>0.001661922582520597</v>
       </c>
       <c r="D63">
-        <v>-0.03458205304777119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05938142332791633</v>
+      </c>
+      <c r="E63">
+        <v>0.02203032334497453</v>
+      </c>
+      <c r="F63">
+        <v>0.003758853364006304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09854405850456315</v>
+        <v>0.1098098835112837</v>
       </c>
       <c r="C64">
-        <v>-0.006894946140701408</v>
+        <v>0.0109887827907874</v>
       </c>
       <c r="D64">
-        <v>-0.004571441967458556</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04399131167744615</v>
+      </c>
+      <c r="E64">
+        <v>0.02403868626934148</v>
+      </c>
+      <c r="F64">
+        <v>0.02484864976955215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1294627984537714</v>
+        <v>0.1480888761647962</v>
       </c>
       <c r="C65">
-        <v>0.002040128430285895</v>
+        <v>0.03284584250701778</v>
       </c>
       <c r="D65">
-        <v>0.02975207532564129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04028207164556585</v>
+      </c>
+      <c r="E65">
+        <v>0.005421506192428234</v>
+      </c>
+      <c r="F65">
+        <v>0.03968859017505141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1666777578183807</v>
+        <v>0.1243151297220316</v>
       </c>
       <c r="C66">
-        <v>-0.01845861610618059</v>
+        <v>0.01366603416750589</v>
       </c>
       <c r="D66">
-        <v>-0.1057779417794759</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1420775043219776</v>
+      </c>
+      <c r="E66">
+        <v>0.06518749840270568</v>
+      </c>
+      <c r="F66">
+        <v>0.03190215358282069</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0648177378789481</v>
+        <v>0.05980753255087027</v>
       </c>
       <c r="C67">
-        <v>-0.009760461185596099</v>
+        <v>0.003192210431292902</v>
       </c>
       <c r="D67">
-        <v>-0.01907160995713256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05527151427536853</v>
+      </c>
+      <c r="E67">
+        <v>0.01723933214662049</v>
+      </c>
+      <c r="F67">
+        <v>-0.03321068214521405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.07837782474028025</v>
+        <v>0.1165175475893406</v>
       </c>
       <c r="C68">
-        <v>-0.001500472610216127</v>
+        <v>0.03205563218770181</v>
       </c>
       <c r="D68">
-        <v>0.2342944983803222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2608828131076935</v>
+      </c>
+      <c r="E68">
+        <v>-0.08633322471517152</v>
+      </c>
+      <c r="F68">
+        <v>0.005097286242407966</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03764068907590071</v>
+        <v>0.04009969203387773</v>
       </c>
       <c r="C69">
-        <v>-0.006950940217256993</v>
+        <v>0.001323528111363206</v>
       </c>
       <c r="D69">
-        <v>0.01127829235510357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007227198728478271</v>
+      </c>
+      <c r="E69">
+        <v>0.02221549695680656</v>
+      </c>
+      <c r="F69">
+        <v>0.001271286048303818</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02330906356394426</v>
+        <v>0.06603045998428539</v>
       </c>
       <c r="C70">
-        <v>-0.02507971265348811</v>
+        <v>-0.02779125824771575</v>
       </c>
       <c r="D70">
-        <v>0.04376335166433312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02402518134763783</v>
+      </c>
+      <c r="E70">
+        <v>-0.03753166909451775</v>
+      </c>
+      <c r="F70">
+        <v>-0.1840546388438784</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09300137758246023</v>
+        <v>0.1361020218363951</v>
       </c>
       <c r="C71">
-        <v>-0.0009910870514155312</v>
+        <v>0.03630806147008771</v>
       </c>
       <c r="D71">
-        <v>0.2509577144283803</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.273306947272477</v>
+      </c>
+      <c r="E71">
+        <v>-0.09654679978539982</v>
+      </c>
+      <c r="F71">
+        <v>0.01002830477358644</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1349556027718155</v>
+        <v>0.1420764601197071</v>
       </c>
       <c r="C72">
-        <v>-0.00560973539927791</v>
+        <v>0.02622175889477637</v>
       </c>
       <c r="D72">
-        <v>0.02601790298588429</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0007699504249648784</v>
+      </c>
+      <c r="E72">
+        <v>0.03862529896117135</v>
+      </c>
+      <c r="F72">
+        <v>0.03340732941098428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2067677962250067</v>
+        <v>0.202376692811464</v>
       </c>
       <c r="C73">
-        <v>-0.03602123735745465</v>
+        <v>0.01232634458102798</v>
       </c>
       <c r="D73">
-        <v>0.03252115239163179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0176237192626945</v>
+      </c>
+      <c r="E73">
+        <v>0.064416193990205</v>
+      </c>
+      <c r="F73">
+        <v>0.03490672003417464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1034198150992955</v>
+        <v>0.09448763649048278</v>
       </c>
       <c r="C74">
-        <v>-0.01272580263625385</v>
+        <v>0.01323895568079789</v>
       </c>
       <c r="D74">
-        <v>-0.0001513913878530238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01715750598552327</v>
+      </c>
+      <c r="E74">
+        <v>0.04377462829282888</v>
+      </c>
+      <c r="F74">
+        <v>0.05895388015903773</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1386183499565308</v>
+        <v>0.1275151864789888</v>
       </c>
       <c r="C75">
-        <v>-0.004478138575729512</v>
+        <v>0.02804223729612796</v>
       </c>
       <c r="D75">
-        <v>0.003181696661383137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03032651493854273</v>
+      </c>
+      <c r="E75">
+        <v>0.05762904100997519</v>
+      </c>
+      <c r="F75">
+        <v>0.02130787658069527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0002510714018323186</v>
+        <v>0.0001623922482527999</v>
       </c>
       <c r="C76">
-        <v>-4.970666000787153e-06</v>
+        <v>4.852651861144683e-05</v>
       </c>
       <c r="D76">
-        <v>0.0004224889250874923</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0001232935951515249</v>
+      </c>
+      <c r="E76">
+        <v>6.363512673501896e-06</v>
+      </c>
+      <c r="F76">
+        <v>-0.0001907076119674193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08699207093272113</v>
+        <v>0.0869102867511397</v>
       </c>
       <c r="C77">
-        <v>-0.004073144189420153</v>
+        <v>0.007942787479267766</v>
       </c>
       <c r="D77">
-        <v>-0.07338250915081804</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1131513115771233</v>
+      </c>
+      <c r="E77">
+        <v>0.03869761818837469</v>
+      </c>
+      <c r="F77">
+        <v>0.03069288873645587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1424929605750759</v>
+        <v>0.101094876685942</v>
       </c>
       <c r="C78">
-        <v>0.01517242337215533</v>
+        <v>0.03957648851781823</v>
       </c>
       <c r="D78">
-        <v>-0.01811337270115029</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1157247894226438</v>
+      </c>
+      <c r="E78">
+        <v>0.07423476610504125</v>
+      </c>
+      <c r="F78">
+        <v>0.04496859399171124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1552618509254701</v>
+        <v>0.1638921456720701</v>
       </c>
       <c r="C79">
-        <v>-0.01368385842412819</v>
+        <v>0.02256175241537646</v>
       </c>
       <c r="D79">
-        <v>0.01539863448614015</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01415331588614347</v>
+      </c>
+      <c r="E79">
+        <v>0.04533538649540914</v>
+      </c>
+      <c r="F79">
+        <v>0.01148472242752306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08774633597743896</v>
+        <v>0.08290325382354384</v>
       </c>
       <c r="C80">
-        <v>-0.01757572747908663</v>
+        <v>-0.001090865976206166</v>
       </c>
       <c r="D80">
-        <v>-0.02471265749134916</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05691854288355844</v>
+      </c>
+      <c r="E80">
+        <v>0.03626083091306988</v>
+      </c>
+      <c r="F80">
+        <v>-0.02195532005193486</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1282114796567698</v>
+        <v>0.1205091744796281</v>
       </c>
       <c r="C81">
-        <v>0.001859019191193472</v>
+        <v>0.03193332462666543</v>
       </c>
       <c r="D81">
-        <v>-0.004536285668149863</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01470109050262351</v>
+      </c>
+      <c r="E81">
+        <v>0.05618248907150948</v>
+      </c>
+      <c r="F81">
+        <v>0.01859708870088302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1701452203073087</v>
+        <v>0.1655870061759139</v>
       </c>
       <c r="C82">
-        <v>-0.01786048004537394</v>
+        <v>0.02447374795486278</v>
       </c>
       <c r="D82">
-        <v>0.002606255107467953</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003438155095518658</v>
+      </c>
+      <c r="E82">
+        <v>0.02767069704950418</v>
+      </c>
+      <c r="F82">
+        <v>0.08262989556576003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06809558610847875</v>
+        <v>0.0597866908045839</v>
       </c>
       <c r="C83">
-        <v>-0.0085040228828119</v>
+        <v>0.002798547751259075</v>
       </c>
       <c r="D83">
-        <v>-0.02201658630404015</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05068163308792885</v>
+      </c>
+      <c r="E83">
+        <v>0.004636822979301033</v>
+      </c>
+      <c r="F83">
+        <v>-0.03030042111544019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07624552628187715</v>
+        <v>0.05869481499757996</v>
       </c>
       <c r="C84">
-        <v>-0.002349985195413747</v>
+        <v>0.01115102935059701</v>
       </c>
       <c r="D84">
-        <v>-0.04108399640393798</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06344984359767011</v>
+      </c>
+      <c r="E84">
+        <v>0.006160482947894388</v>
+      </c>
+      <c r="F84">
+        <v>0.004204488206438239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1381595403785787</v>
+        <v>0.1362591772163179</v>
       </c>
       <c r="C85">
-        <v>-0.004851768469413623</v>
+        <v>0.0279106167333562</v>
       </c>
       <c r="D85">
-        <v>0.00908839560065549</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009627075569538348</v>
+      </c>
+      <c r="E85">
+        <v>0.03695086526291554</v>
+      </c>
+      <c r="F85">
+        <v>0.04705656004522582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.07571234670961388</v>
+        <v>0.09587184330298709</v>
       </c>
       <c r="C86">
-        <v>-0.01490498679860453</v>
+        <v>-0.005203056277169399</v>
       </c>
       <c r="D86">
-        <v>0.09855212634568809</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0393817080914616</v>
+      </c>
+      <c r="E86">
+        <v>0.2176802583784382</v>
+      </c>
+      <c r="F86">
+        <v>-0.9088751406352558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1365825335803064</v>
+        <v>0.09663764844531771</v>
       </c>
       <c r="C87">
-        <v>-0.003900303889737483</v>
+        <v>0.01984403282289698</v>
       </c>
       <c r="D87">
-        <v>-0.04438212146686141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09457032018850189</v>
+      </c>
+      <c r="E87">
+        <v>-0.05264402967514209</v>
+      </c>
+      <c r="F87">
+        <v>0.04826579414399343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05606045717788698</v>
+        <v>0.06081517247314686</v>
       </c>
       <c r="C88">
-        <v>-0.006327879123036044</v>
+        <v>0.002159019882536396</v>
       </c>
       <c r="D88">
-        <v>-0.01303057688895102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0492004092781869</v>
+      </c>
+      <c r="E88">
+        <v>0.02386221536246728</v>
+      </c>
+      <c r="F88">
+        <v>0.01331264728692729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.0986765748162257</v>
+        <v>0.1327816179019611</v>
       </c>
       <c r="C89">
-        <v>-0.02594592819043724</v>
+        <v>0.01323218731449136</v>
       </c>
       <c r="D89">
-        <v>0.2614500940537061</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2480740481703879</v>
+      </c>
+      <c r="E89">
+        <v>-0.08984558405615925</v>
+      </c>
+      <c r="F89">
+        <v>-0.009575693035408839</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1014667881402081</v>
+        <v>0.1507840493006013</v>
       </c>
       <c r="C90">
-        <v>-0.005769008248627676</v>
+        <v>0.03274349616154619</v>
       </c>
       <c r="D90">
-        <v>0.2476709667552941</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2700949023545257</v>
+      </c>
+      <c r="E90">
+        <v>-0.1125125462080871</v>
+      </c>
+      <c r="F90">
+        <v>-0.003764054193496157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1084138635887073</v>
+        <v>0.1204011352162507</v>
       </c>
       <c r="C91">
-        <v>-0.009300890253021169</v>
+        <v>0.01920950896111231</v>
       </c>
       <c r="D91">
-        <v>0.03069089959727339</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01427350911303318</v>
+      </c>
+      <c r="E91">
+        <v>0.05600129935933315</v>
+      </c>
+      <c r="F91">
+        <v>-0.0003852524711122777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.09728680199865283</v>
+        <v>0.1480412004218642</v>
       </c>
       <c r="C92">
-        <v>-0.01953937162171793</v>
+        <v>0.02410882085713248</v>
       </c>
       <c r="D92">
-        <v>0.2597454322541561</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.292423737712486</v>
+      </c>
+      <c r="E92">
+        <v>-0.1017826322021401</v>
+      </c>
+      <c r="F92">
+        <v>-0.01284333289507969</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1041683261842184</v>
+        <v>0.152008403904366</v>
       </c>
       <c r="C93">
-        <v>-0.0108414239639026</v>
+        <v>0.02837069047329788</v>
       </c>
       <c r="D93">
-        <v>0.2627439449461914</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2689779298972952</v>
+      </c>
+      <c r="E93">
+        <v>-0.07777994662097661</v>
+      </c>
+      <c r="F93">
+        <v>0.002569750194524829</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.146470664900031</v>
+        <v>0.1296885613266799</v>
       </c>
       <c r="C94">
-        <v>-0.009965094950986833</v>
+        <v>0.02466907402173299</v>
       </c>
       <c r="D94">
-        <v>-0.01176445900592976</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04284059991774043</v>
+      </c>
+      <c r="E94">
+        <v>0.05698594411679225</v>
+      </c>
+      <c r="F94">
+        <v>0.03817327034596254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1245390160118861</v>
+        <v>0.1271357274345288</v>
       </c>
       <c r="C95">
-        <v>-0.0178620156395934</v>
+        <v>0.003427770766326519</v>
       </c>
       <c r="D95">
-        <v>-0.04512638728080638</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09284599273241717</v>
+      </c>
+      <c r="E95">
+        <v>0.04667014445216056</v>
+      </c>
+      <c r="F95">
+        <v>-0.007583436696719763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1240664790508783</v>
+        <v>0.1069704074731595</v>
       </c>
       <c r="C96">
-        <v>-0.9872648372253069</v>
+        <v>-0.9873771969454215</v>
       </c>
       <c r="D96">
-        <v>0.02074210633703184</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04924737910828887</v>
+      </c>
+      <c r="E96">
+        <v>0.05494471538079318</v>
+      </c>
+      <c r="F96">
+        <v>0.04153799307720067</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1722146766022118</v>
+        <v>0.1928495198840522</v>
       </c>
       <c r="C97">
-        <v>-0.04663943288903499</v>
+        <v>-0.007244896784089228</v>
       </c>
       <c r="D97">
-        <v>0.0792405044606727</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01680690140973804</v>
+      </c>
+      <c r="E97">
+        <v>0.01873660416520311</v>
+      </c>
+      <c r="F97">
+        <v>-0.08010970838845588</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1981699883788523</v>
+        <v>0.2052764726606928</v>
       </c>
       <c r="C98">
-        <v>-0.04000124315320204</v>
+        <v>0.006986911988010217</v>
       </c>
       <c r="D98">
-        <v>0.0002101984615797402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01308914207653951</v>
+      </c>
+      <c r="E98">
+        <v>-0.08306709507297348</v>
+      </c>
+      <c r="F98">
+        <v>-0.09134450518388221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05532638043567763</v>
+        <v>0.05524665248365052</v>
       </c>
       <c r="C99">
-        <v>-0.01547330741053113</v>
+        <v>-0.004656098828611766</v>
       </c>
       <c r="D99">
-        <v>-0.00882939809925673</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03897356390816552</v>
+      </c>
+      <c r="E99">
+        <v>0.02241156472732713</v>
+      </c>
+      <c r="F99">
+        <v>0.001274557525902438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.164243545763173</v>
+        <v>0.1255800748542077</v>
       </c>
       <c r="C100">
-        <v>-0.06785787581431056</v>
+        <v>-0.05460919220071425</v>
       </c>
       <c r="D100">
-        <v>-0.5980809562336034</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3430829431674936</v>
+      </c>
+      <c r="E100">
+        <v>-0.8887531780149422</v>
+      </c>
+      <c r="F100">
+        <v>-0.1468346338084243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02638588133572132</v>
+        <v>0.02785832055002692</v>
       </c>
       <c r="C101">
-        <v>0.004707319681794312</v>
+        <v>0.00840431939860764</v>
       </c>
       <c r="D101">
-        <v>-0.006294052060909671</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03060172183130801</v>
+      </c>
+      <c r="E101">
+        <v>0.009907060941857719</v>
+      </c>
+      <c r="F101">
+        <v>-0.01369798755048017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
